--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>107.5762443333333</v>
+        <v>0.1979736666666666</v>
       </c>
       <c r="H2">
-        <v>322.728733</v>
+        <v>0.5939209999999999</v>
       </c>
       <c r="I2">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="J2">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>2545.243362595974</v>
+        <v>0.02809767660655555</v>
       </c>
       <c r="R2">
-        <v>22907.19026336377</v>
+        <v>0.252879089459</v>
       </c>
       <c r="S2">
-        <v>0.1371140556310248</v>
+        <v>3.83629245156931E-06</v>
       </c>
       <c r="T2">
-        <v>0.1371140556310248</v>
+        <v>3.83629245156931E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>107.5762443333333</v>
+        <v>0.1979736666666666</v>
       </c>
       <c r="H3">
-        <v>322.728733</v>
+        <v>0.5939209999999999</v>
       </c>
       <c r="I3">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="J3">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>8.273222787951223</v>
+        <v>0.01522529681744444</v>
       </c>
       <c r="R3">
-        <v>74.45900509156101</v>
+        <v>0.137027671357</v>
       </c>
       <c r="S3">
-        <v>0.0004456843484066769</v>
+        <v>2.078772991501968E-06</v>
       </c>
       <c r="T3">
-        <v>0.0004456843484066769</v>
+        <v>2.078772991501968E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>107.5762443333333</v>
+        <v>0.1979736666666666</v>
       </c>
       <c r="H4">
-        <v>322.728733</v>
+        <v>0.5939209999999999</v>
       </c>
       <c r="I4">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="J4">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>211.6863103567504</v>
+        <v>0.5175013829036665</v>
       </c>
       <c r="R4">
-        <v>1905.176793210754</v>
+        <v>4.657512446133</v>
       </c>
       <c r="S4">
-        <v>0.01140369088517263</v>
+        <v>7.065661252741525E-05</v>
       </c>
       <c r="T4">
-        <v>0.01140369088517263</v>
+        <v>7.065661252741525E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>107.5762443333333</v>
+        <v>0.1979736666666666</v>
       </c>
       <c r="H5">
-        <v>322.728733</v>
+        <v>0.5939209999999999</v>
       </c>
       <c r="I5">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="J5">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>5724.61867176478</v>
+        <v>10.31685169295189</v>
       </c>
       <c r="R5">
-        <v>51521.56804588302</v>
+        <v>92.85166523656699</v>
       </c>
       <c r="S5">
-        <v>0.308389246608697</v>
+        <v>0.001408602598280216</v>
       </c>
       <c r="T5">
-        <v>0.308389246608697</v>
+        <v>0.001408602598280216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.923847</v>
       </c>
       <c r="I6">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763575</v>
       </c>
       <c r="J6">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763576</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>7.286043058348333</v>
+        <v>0.04370607242366667</v>
       </c>
       <c r="R6">
-        <v>65.57438752513499</v>
+        <v>0.393354651813</v>
       </c>
       <c r="S6">
-        <v>0.0003925042799103832</v>
+        <v>5.96737154016267E-06</v>
       </c>
       <c r="T6">
-        <v>0.0003925042799103832</v>
+        <v>5.96737154016267E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.923847</v>
       </c>
       <c r="I7">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763575</v>
       </c>
       <c r="J7">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763576</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>0.02368302314433333</v>
@@ -883,10 +883,10 @@
         <v>0.213147208299</v>
       </c>
       <c r="S7">
-        <v>1.275821165332878E-06</v>
+        <v>3.233541484271677E-06</v>
       </c>
       <c r="T7">
-        <v>1.275821165332878E-06</v>
+        <v>3.233541484271678E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.923847</v>
       </c>
       <c r="I8">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763575</v>
       </c>
       <c r="J8">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763576</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>0.6059756779206664</v>
+        <v>0.804975914459</v>
       </c>
       <c r="R8">
-        <v>5.453781101285998</v>
+        <v>7.244783230131</v>
       </c>
       <c r="S8">
-        <v>3.26443372899E-05</v>
+        <v>0.000109906703944826</v>
       </c>
       <c r="T8">
-        <v>3.26443372899E-05</v>
+        <v>0.000109906703944826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.923847</v>
       </c>
       <c r="I9">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763575</v>
       </c>
       <c r="J9">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763576</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>16.38735955392567</v>
+        <v>16.04791291430767</v>
       </c>
       <c r="R9">
-        <v>147.486235985331</v>
+        <v>144.431216228769</v>
       </c>
       <c r="S9">
-        <v>0.0008827986205731018</v>
+        <v>0.002191088182794315</v>
       </c>
       <c r="T9">
-        <v>0.0008827986205731019</v>
+        <v>0.002191088182794315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1050823333333333</v>
+        <v>0.1138773333333333</v>
       </c>
       <c r="H10">
-        <v>0.315247</v>
+        <v>0.341632</v>
       </c>
       <c r="I10">
-        <v>0.0004467499939505719</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="J10">
-        <v>0.000446749993950572</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>2.486237673570555</v>
+        <v>0.01616219236977778</v>
       </c>
       <c r="R10">
-        <v>22.376139062135</v>
+        <v>0.145459731328</v>
       </c>
       <c r="S10">
-        <v>0.0001339353775342763</v>
+        <v>2.206691231349837E-06</v>
       </c>
       <c r="T10">
-        <v>0.0001339353775342763</v>
+        <v>2.206691231349837E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1050823333333333</v>
+        <v>0.1138773333333333</v>
       </c>
       <c r="H11">
-        <v>0.315247</v>
+        <v>0.341632</v>
       </c>
       <c r="I11">
-        <v>0.0004467499939505719</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="J11">
-        <v>0.000446749993950572</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>0.008081426899888888</v>
+        <v>0.008757812238222222</v>
       </c>
       <c r="R11">
-        <v>0.07273284209899999</v>
+        <v>0.078820310144</v>
       </c>
       <c r="S11">
-        <v>4.353521686033442E-07</v>
+        <v>1.195740468231971E-06</v>
       </c>
       <c r="T11">
-        <v>4.353521686033442E-07</v>
+        <v>1.195740468231971E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1050823333333333</v>
+        <v>0.1138773333333333</v>
       </c>
       <c r="H12">
-        <v>0.315247</v>
+        <v>0.341632</v>
       </c>
       <c r="I12">
-        <v>0.0004467499939505719</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="J12">
-        <v>0.000446749993950572</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>0.2067788438317777</v>
+        <v>0.2976743244373333</v>
       </c>
       <c r="R12">
-        <v>1.861009594486</v>
+        <v>2.679068919936</v>
       </c>
       <c r="S12">
-        <v>1.11393222012185E-05</v>
+        <v>4.064271149019134E-05</v>
       </c>
       <c r="T12">
-        <v>1.11393222012185E-05</v>
+        <v>4.064271149019134E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1050823333333333</v>
+        <v>0.1138773333333333</v>
       </c>
       <c r="H13">
-        <v>0.315247</v>
+        <v>0.341632</v>
       </c>
       <c r="I13">
-        <v>0.0004467499939505719</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="J13">
-        <v>0.000446749993950572</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>5.591906384170112</v>
+        <v>5.934403190940444</v>
       </c>
       <c r="R13">
-        <v>50.327157457531</v>
+        <v>53.409628718464</v>
       </c>
       <c r="S13">
-        <v>0.0003012399420464738</v>
+        <v>0.0008102487079185055</v>
       </c>
       <c r="T13">
-        <v>0.0003012399420464738</v>
+        <v>0.0008102487079185053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>127.2257993333333</v>
+        <v>132.6801566666667</v>
       </c>
       <c r="H14">
-        <v>381.677398</v>
+        <v>398.04047</v>
       </c>
       <c r="I14">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="J14">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>3010.149901689732</v>
+        <v>18.83080814179223</v>
       </c>
       <c r="R14">
-        <v>27091.34911520759</v>
+        <v>169.47727327613</v>
       </c>
       <c r="S14">
-        <v>0.1621588988870005</v>
+        <v>0.002571048423073272</v>
       </c>
       <c r="T14">
-        <v>0.1621588988870005</v>
+        <v>0.002571048423073272</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>127.2257993333333</v>
+        <v>132.6801566666667</v>
       </c>
       <c r="H15">
-        <v>381.677398</v>
+        <v>398.04047</v>
       </c>
       <c r="I15">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="J15">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>9.784384914929555</v>
+        <v>10.20385590188778</v>
       </c>
       <c r="R15">
-        <v>88.059464234366</v>
+        <v>91.83470311699001</v>
       </c>
       <c r="S15">
-        <v>0.0005270917183230347</v>
+        <v>0.001393174813755953</v>
       </c>
       <c r="T15">
-        <v>0.0005270917183230347</v>
+        <v>0.001393174813755953</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>127.2257993333333</v>
+        <v>132.6801566666667</v>
       </c>
       <c r="H16">
-        <v>381.677398</v>
+        <v>398.04047</v>
       </c>
       <c r="I16">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="J16">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>250.352298594947</v>
+        <v>346.8247354052567</v>
       </c>
       <c r="R16">
-        <v>2253.170687354524</v>
+        <v>3121.42261864731</v>
       </c>
       <c r="S16">
-        <v>0.0134866549507044</v>
+        <v>0.04735342117726139</v>
       </c>
       <c r="T16">
-        <v>0.0134866549507044</v>
+        <v>0.04735342117726139</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>127.2257993333333</v>
+        <v>132.6801566666667</v>
       </c>
       <c r="H17">
-        <v>381.677398</v>
+        <v>398.04047</v>
       </c>
       <c r="I17">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="J17">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>6770.26039445145</v>
+        <v>6914.260477037966</v>
       </c>
       <c r="R17">
-        <v>60932.34355006305</v>
+        <v>62228.3442933417</v>
       </c>
       <c r="S17">
-        <v>0.3647187039177817</v>
+        <v>0.9440326916587869</v>
       </c>
       <c r="T17">
-        <v>0.3647187039177817</v>
+        <v>0.9440326916587868</v>
       </c>
     </row>
   </sheetData>
